--- a/demo/Results/Distance/Posthoc.xlsx
+++ b/demo/Results/Distance/Posthoc.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Gender</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>DF2</t>
+  </si>
+  <si>
+    <t>SMD</t>
   </si>
   <si>
     <t>etaSqp</t>
@@ -118,7 +121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -131,9 +134,10 @@
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="4.42578125" customWidth="true"/>
     <col min="10" max="10" width="4.42578125" customWidth="true"/>
-    <col min="11" max="11" width="13.7109375" customWidth="true"/>
-    <col min="12" max="12" width="15.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.5703125" customWidth="true"/>
+    <col min="11" max="11" width="11.7109375" customWidth="true"/>
+    <col min="12" max="12" width="13.7109375" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" customWidth="true"/>
+    <col min="14" max="14" width="11.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -174,7 +178,10 @@
         <v>15</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -188,19 +195,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="0">
-        <v>1.0074266878617245e-11</v>
+        <v>1.007429247948047e-11</v>
       </c>
       <c r="E2" s="0">
         <v>2.0148549495502266e-11</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0096188815599944633</v>
+        <v>0.0096188815600708466</v>
       </c>
       <c r="G2" s="0">
-        <v>0.12326235835815337</v>
+        <v>0.12326235835665807</v>
       </c>
       <c r="H2" s="0">
-        <v>48.596048251358162</v>
+        <v>48.596042778975743</v>
       </c>
       <c r="I2" s="0">
         <v>1</v>
@@ -209,13 +216,16 @@
         <v>496</v>
       </c>
       <c r="K2" s="0">
-        <v>0.089233200291105805</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>16</v>
+        <v>0.6260220210169859</v>
+      </c>
+      <c r="L2" s="0">
+        <v>0.08923319113925042</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -229,19 +239,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="0">
-        <v>0.28746906971706887</v>
+        <v>0.28746909685079769</v>
       </c>
       <c r="E3" s="0">
-        <v>0.28746906971706887</v>
+        <v>0.28746909685079769</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00094841946000379096</v>
+        <v>-0.00094841945996293475</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.014790988845293987</v>
+        <v>-0.01479098884449297</v>
       </c>
       <c r="H3" s="0">
-        <v>1.1338718012475595</v>
+        <v>1.1338716734471541</v>
       </c>
       <c r="I3" s="0">
         <v>1</v>
@@ -250,12 +260,15 @@
         <v>496</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0022808178351220406</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="0"/>
+        <v>0.095624925614440984</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.0022808175786339529</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/demo/Results/Distance/Posthoc.xlsx
+++ b/demo/Results/Distance/Posthoc.xlsx
@@ -13,27 +13,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Gender</t>
   </si>
   <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>Chocolate_1</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>Chocolate_2</t>
+  </si>
+  <si>
     <t>without</t>
   </si>
   <si>
-    <t>Chocolate_2</t>
-  </si>
-  <si>
-    <t>with</t>
+    <t>emmCI_1</t>
+  </si>
+  <si>
+    <t>1.86 (1.85, 1.86)</t>
+  </si>
+  <si>
+    <t>2.05 (2.04, 2.06)</t>
+  </si>
+  <si>
+    <t>emmCI_2</t>
+  </si>
+  <si>
+    <t>1.86 (1.85, 1.87)</t>
+  </si>
+  <si>
+    <t>2.05 (2.04, 2.06)</t>
   </si>
   <si>
     <t>p</t>
@@ -66,13 +84,16 @@
     <t>effectSize</t>
   </si>
   <si>
-    <t>medium to large</t>
-  </si>
-  <si>
-    <t>very small</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
   <si>
     <t>significance</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
   <si>
     <t>***</t>
@@ -121,23 +142,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
     <col min="2" max="2" width="12" customWidth="true"/>
     <col min="3" max="3" width="12" customWidth="true"/>
-    <col min="4" max="4" width="15.5703125" customWidth="true"/>
-    <col min="5" max="5" width="14.5703125" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
-    <col min="9" max="9" width="4.42578125" customWidth="true"/>
-    <col min="10" max="10" width="4.42578125" customWidth="true"/>
-    <col min="11" max="11" width="11.7109375" customWidth="true"/>
-    <col min="12" max="12" width="13.7109375" customWidth="true"/>
-    <col min="13" max="13" width="15.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.5703125" customWidth="true"/>
+    <col min="7" max="7" width="13.7109375" customWidth="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="4.42578125" customWidth="true"/>
+    <col min="12" max="12" width="4.42578125" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="10" customWidth="true"/>
+    <col min="16" max="16" width="11.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -154,34 +177,40 @@
         <v>7</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -194,38 +223,44 @@
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0">
-        <v>1.007429247948047e-11</v>
-      </c>
-      <c r="E2" s="0">
-        <v>2.0148549495502266e-11</v>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0096188815600708466</v>
+        <v>0.045806251740671072</v>
       </c>
       <c r="G2" s="0">
-        <v>0.12326235835665807</v>
+        <v>0.0458062517406711</v>
       </c>
       <c r="H2" s="0">
-        <v>48.596042778975743</v>
+        <v>0.0016437045720332222</v>
       </c>
       <c r="I2" s="0">
+        <v>0.025669573558750814</v>
+      </c>
+      <c r="J2" s="0">
+        <v>4.009086477938423</v>
+      </c>
+      <c r="K2" s="0">
         <v>1</v>
       </c>
-      <c r="J2" s="0">
-        <v>496</v>
-      </c>
-      <c r="K2" s="0">
-        <v>0.6260220210169859</v>
-      </c>
       <c r="L2" s="0">
-        <v>0.08923319113925042</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>20</v>
+        <v>490</v>
+      </c>
+      <c r="M2" s="0">
+        <v>0.18090670677064291</v>
+      </c>
+      <c r="N2" s="0">
+        <v>0.0081154103996778654</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -238,37 +273,45 @@
       <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0">
-        <v>0.28746909685079769</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.28746909685079769</v>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00094841945996293475</v>
+        <v>5.9144746884209444e-10</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.01479098884449297</v>
+        <v>1.1828948931480454e-09</v>
       </c>
       <c r="H3" s="0">
-        <v>1.1338716734471541</v>
+        <v>-0.0097633539684736093</v>
       </c>
       <c r="I3" s="0">
+        <v>-0.12532611464994356</v>
+      </c>
+      <c r="J3" s="0">
+        <v>39.932137077404555</v>
+      </c>
+      <c r="K3" s="0">
         <v>1</v>
       </c>
-      <c r="J3" s="0">
-        <v>496</v>
-      </c>
-      <c r="K3" s="0">
-        <v>0.095624925614440984</v>
-      </c>
       <c r="L3" s="0">
-        <v>0.0022808175786339529</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="0"/>
+        <v>490</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.5709436304954304</v>
+      </c>
+      <c r="N3" s="0">
+        <v>0.075353303344899536</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/demo/Results/Distance/Posthoc.xlsx
+++ b/demo/Results/Distance/Posthoc.xlsx
@@ -48,7 +48,7 @@
     <t>emmCI_2</t>
   </si>
   <si>
-    <t>1.86 (1.85, 1.87)</t>
+    <t>1.86 (1.85, 1.86)</t>
   </si>
   <si>
     <t>2.05 (2.04, 2.06)</t>
@@ -158,7 +158,7 @@
     <col min="11" max="11" width="4.42578125" customWidth="true"/>
     <col min="12" max="12" width="4.42578125" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" customWidth="true"/>
     <col min="15" max="15" width="10" customWidth="true"/>
     <col min="16" max="16" width="11.5703125" customWidth="true"/>
   </cols>
@@ -230,19 +230,19 @@
         <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>0.045806251740671072</v>
+        <v>0.045804547246759114</v>
       </c>
       <c r="G2" s="0">
-        <v>0.0458062517406711</v>
+        <v>0.045804547246759086</v>
       </c>
       <c r="H2" s="0">
-        <v>0.0016437045720332222</v>
+        <v>0.001643717386778043</v>
       </c>
       <c r="I2" s="0">
-        <v>0.025669573558750814</v>
+        <v>0.025669773744266322</v>
       </c>
       <c r="J2" s="0">
-        <v>4.009086477938423</v>
+        <v>4.0091497522804866</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
@@ -251,10 +251,10 @@
         <v>490</v>
       </c>
       <c r="M2" s="0">
-        <v>0.18090670677064291</v>
+        <v>0.18090813436614925</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0081154103996778654</v>
+        <v>0.0081155374435693418</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>23</v>
@@ -280,19 +280,19 @@
         <v>12</v>
       </c>
       <c r="F3" s="0">
-        <v>5.9144746884209444e-10</v>
+        <v>5.9148882490784756e-10</v>
       </c>
       <c r="G3" s="0">
-        <v>1.1828948931480454e-09</v>
+        <v>1.18297760476338e-09</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.0097633539684736093</v>
+        <v>-0.009763334985665395</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.12532611464994356</v>
+        <v>-0.12532587124463376</v>
       </c>
       <c r="J3" s="0">
-        <v>39.932137077404555</v>
+        <v>39.931989359775031</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
@@ -301,10 +301,10 @@
         <v>490</v>
       </c>
       <c r="M3" s="0">
-        <v>0.5709436304954304</v>
+        <v>0.57094257447233887</v>
       </c>
       <c r="N3" s="0">
-        <v>0.075353303344899536</v>
+        <v>0.075353045601225049</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>24</v>

--- a/demo/Results/Distance/Posthoc.xlsx
+++ b/demo/Results/Distance/Posthoc.xlsx
@@ -27,19 +27,19 @@
     <t>Chocolate_1</t>
   </si>
   <si>
-    <t>with</t>
+    <t>no</t>
   </si>
   <si>
     <t>Chocolate_2</t>
   </si>
   <si>
-    <t>without</t>
+    <t>yes</t>
   </si>
   <si>
     <t>emmCI_1</t>
   </si>
   <si>
-    <t>1.86 (1.85, 1.86)</t>
+    <t>1.86 (1.85, 1.87)</t>
   </si>
   <si>
     <t>2.05 (2.04, 2.06)</t>
@@ -152,13 +152,13 @@
     <col min="5" max="5" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
+    <col min="9" max="9" width="14.42578125" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="4.42578125" customWidth="true"/>
     <col min="12" max="12" width="4.42578125" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="10" customWidth="true"/>
     <col min="16" max="16" width="11.5703125" customWidth="true"/>
   </cols>
@@ -230,19 +230,19 @@
         <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>0.045804547246759114</v>
+        <v>0.045806251740671072</v>
       </c>
       <c r="G2" s="0">
-        <v>0.045804547246759086</v>
+        <v>0.0458062517406711</v>
       </c>
       <c r="H2" s="0">
-        <v>0.001643717386778043</v>
+        <v>-0.0016437045720332222</v>
       </c>
       <c r="I2" s="0">
-        <v>0.025669773744266322</v>
+        <v>-0.025662985979687386</v>
       </c>
       <c r="J2" s="0">
-        <v>4.0091497522804866</v>
+        <v>4.009086477938423</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
@@ -251,10 +251,10 @@
         <v>490</v>
       </c>
       <c r="M2" s="0">
-        <v>0.18090813436614925</v>
+        <v>0.18090670677064291</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0081155374435693418</v>
+        <v>0.0081154103996778654</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>23</v>
@@ -280,19 +280,19 @@
         <v>12</v>
       </c>
       <c r="F3" s="0">
-        <v>5.9148882490784756e-10</v>
+        <v>5.9144746884209444e-10</v>
       </c>
       <c r="G3" s="0">
-        <v>1.18297760476338e-09</v>
+        <v>1.1828948931480454e-09</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.009763334985665395</v>
+        <v>0.0097633539684736093</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.12532587124463376</v>
+        <v>0.12548337809223806</v>
       </c>
       <c r="J3" s="0">
-        <v>39.931989359775031</v>
+        <v>39.932137077404555</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
@@ -301,10 +301,10 @@
         <v>490</v>
       </c>
       <c r="M3" s="0">
-        <v>0.57094257447233887</v>
+        <v>0.5709436304954304</v>
       </c>
       <c r="N3" s="0">
-        <v>0.075353045601225049</v>
+        <v>0.075353303344899536</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>24</v>

--- a/demo/Results/Distance/Posthoc.xlsx
+++ b/demo/Results/Distance/Posthoc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="30" uniqueCount="26">
   <si>
     <t>Gender</t>
   </si>
@@ -39,19 +39,13 @@
     <t>emmCI_1</t>
   </si>
   <si>
-    <t>1.86 (1.85, 1.87)</t>
+    <t>1.86 (1.85, 1.86)</t>
   </si>
   <si>
     <t>2.05 (2.04, 2.06)</t>
   </si>
   <si>
     <t>emmCI_2</t>
-  </si>
-  <si>
-    <t>1.86 (1.85, 1.86)</t>
-  </si>
-  <si>
-    <t>2.05 (2.04, 2.06)</t>
   </si>
   <si>
     <t>p</t>
@@ -102,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -141,8 +135,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="true"/>
@@ -152,13 +149,13 @@
     <col min="5" max="5" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true"/>
-    <col min="8" max="8" width="15.42578125" customWidth="true"/>
-    <col min="9" max="9" width="14.42578125" customWidth="true"/>
+    <col min="8" max="8" width="14.42578125" customWidth="true"/>
+    <col min="9" max="9" width="13.42578125" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="4.42578125" customWidth="true"/>
     <col min="12" max="12" width="4.42578125" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" customWidth="true"/>
     <col min="15" max="15" width="10" customWidth="true"/>
     <col min="16" max="16" width="11.5703125" customWidth="true"/>
   </cols>
@@ -180,37 +177,37 @@
         <v>10</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="P1" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -227,22 +224,22 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0">
-        <v>0.045806251740671072</v>
+        <v>0.045804540793441983</v>
       </c>
       <c r="G2" s="0">
-        <v>0.0458062517406711</v>
+        <v>0.045804540793441983</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.0016437045720332222</v>
+        <v>-0.0016437173896139967</v>
       </c>
       <c r="I2" s="0">
-        <v>-0.025662985979687386</v>
+        <v>-0.025663186100908304</v>
       </c>
       <c r="J2" s="0">
-        <v>4.009086477938423</v>
+        <v>4.009149991845689</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
@@ -251,16 +248,16 @@
         <v>490</v>
       </c>
       <c r="M2" s="0">
-        <v>0.18090670677064291</v>
+        <v>0.18090813977119716</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0081154103996778654</v>
+        <v>0.0081155379245746069</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -277,22 +274,22 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0">
-        <v>5.9144746884209444e-10</v>
+        <v>5.9148819583792808e-10</v>
       </c>
       <c r="G3" s="0">
-        <v>1.1828948931480454e-09</v>
+        <v>1.1829763835180529e-09</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0097633539684736093</v>
+        <v>0.0097633349858421425</v>
       </c>
       <c r="I3" s="0">
-        <v>0.12548337809223806</v>
+        <v>0.12548313404482506</v>
       </c>
       <c r="J3" s="0">
-        <v>39.932137077404555</v>
+        <v>39.93199160664016</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
@@ -301,16 +298,16 @@
         <v>490</v>
       </c>
       <c r="M3" s="0">
-        <v>0.5709436304954304</v>
+        <v>0.5709425905350366</v>
       </c>
       <c r="N3" s="0">
-        <v>0.075353303344899536</v>
+        <v>0.075353049521646967</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
